--- a/Running projects/Engro 3rd & 8th Floor/PO/002- Purchase order for Fire Equipments plus FM-200 (Secure vision).xlsx
+++ b/Running projects/Engro 3rd & 8th Floor/PO/002- Purchase order for Fire Equipments plus FM-200 (Secure vision).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Engro 3rd &amp; 8th Floor\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036C41C2-3D69-4548-8192-3D1C342FEAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE608F3F-04C1-4CEF-BE12-7EFAEBA2141F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$63</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$20:$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>S No.</t>
   </si>
@@ -149,10 +149,6 @@
 13 Conventional Fire Ala</t>
   </si>
   <si>
-    <t xml:space="preserve">Conventional Smoke Detector with Base. 
-(Make: ZETA-UK) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Conventional Fire Alarm Sounder with Flasher
 (Make: ZETA-UK) </t>
   </si>
@@ -165,13 +161,23 @@
 (Make: LIFECO)</t>
   </si>
   <si>
-    <t>Flexible SprinklerHose Fittings- Unbraided Type, UL-Listed 1000mm Model 
+    <t>Supply of Fire Fighting System inluding FM-200 (3rd &amp; 8th Floor - Engro Office DMC Karachi)</t>
+  </si>
+  <si>
+    <t>Sets</t>
+  </si>
+  <si>
+    <t>Flexible Sprinkler Hose Fittings- Unbraided Type, UL-Listed 1000mm Model 
 LPN-A1000
 (Make: LIFECO)</t>
   </si>
   <si>
+    <t xml:space="preserve">Foam 6Ltr Fire Extinguisher
+(Make: FIREX or Equivalent) </t>
+  </si>
+  <si>
     <t>UL Listed LIFECO-227 Fire Suppression System with UL Listed Cylinder &amp; UL/FM 
-HFC227ea Clean Agent for I.T. Room - 20.38785 cu.m. - 12 Kg
+HFC227ea Clean Agent for I.T. Room - 20.38785 cu.m. - 16 Kg
 Cylinder with Head Valve
 • Low Pressure Switch
 • Solenoid Valve
@@ -179,10 +185,7 @@
 (Make: LIFECO)</t>
   </si>
   <si>
-    <t>Supply of Fire Fighting System inluding FM-200 (3rd &amp; 8th Floor - Engro Office DMC Karachi)</t>
-  </si>
-  <si>
-    <t>Sets</t>
+    <t>Conventional Fire Alarm Sounder</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -518,6 +521,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -617,13 +623,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>150916</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -691,13 +697,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>150247</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>111122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -815,13 +821,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>302400</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>26175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>734240</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>150037</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -853,50 +859,6 @@
         <a:xfrm>
           <a:off x="302400" y="8693925"/>
           <a:ext cx="774740" cy="723937"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>410680</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>858454</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A45DA28D-B190-B279-70E5-4D53356C93FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8191500" y="1428750"/>
-          <a:ext cx="7916380" cy="8630854"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1171,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:H52"/>
+  <dimension ref="A7:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1243,12 +1205,12 @@
       <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:8" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:8" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -1256,7 +1218,7 @@
       <c r="E20" s="35"/>
       <c r="F20" s="36"/>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +1240,7 @@
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>1</v>
       </c>
@@ -1286,22 +1248,20 @@
         <v>22</v>
       </c>
       <c r="C22" s="6">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="26">
-        <v>2000</v>
-      </c>
+      <c r="E22" s="26"/>
       <c r="F22" s="25">
         <f>E22*C22</f>
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2</v>
       </c>
@@ -1309,27 +1269,25 @@
         <v>23</v>
       </c>
       <c r="C23" s="6">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="26">
-        <v>5000</v>
-      </c>
+      <c r="E23" s="26"/>
       <c r="F23" s="25">
-        <f t="shared" ref="F23:F36" si="0">E23*C23</f>
-        <v>810000</v>
+        <f t="shared" ref="F23:F44" si="0">E23*C23</f>
+        <v>0</v>
       </c>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>3</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="6">
         <v>31</v>
@@ -1337,17 +1295,15 @@
       <c r="D24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="26">
-        <v>2500</v>
-      </c>
+      <c r="E24" s="26"/>
       <c r="F24" s="25">
         <f t="shared" si="0"/>
-        <v>77500</v>
+        <v>0</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>4</v>
       </c>
@@ -1355,45 +1311,42 @@
         <v>24</v>
       </c>
       <c r="C25" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="26">
-        <v>9000</v>
-      </c>
+      <c r="E25" s="26"/>
       <c r="F25" s="25">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>5</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="6">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="26">
-        <v>5200</v>
-      </c>
+      <c r="E26" s="26"/>
       <c r="F26" s="25">
         <f t="shared" si="0"/>
-        <v>842400</v>
+        <v>0</v>
       </c>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:8" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I26" s="38"/>
+    </row>
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>6</v>
       </c>
@@ -1401,22 +1354,20 @@
         <v>25</v>
       </c>
       <c r="C27" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="26">
-        <v>30000</v>
-      </c>
+      <c r="E27" s="26"/>
       <c r="F27" s="25">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>7</v>
       </c>
@@ -1424,109 +1375,99 @@
         <v>26</v>
       </c>
       <c r="C28" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="26">
-        <v>22000</v>
-      </c>
+      <c r="E28" s="26"/>
       <c r="F28" s="25">
         <f t="shared" si="0"/>
-        <v>44000</v>
+        <v>0</v>
       </c>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B29" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="26">
-        <v>10000</v>
-      </c>
+      <c r="E29" s="26"/>
       <c r="F29" s="25">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
     </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>9</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" s="6">
         <v>2</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="26">
-        <v>1500000</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E30" s="26"/>
       <c r="F30" s="25">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
     </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="4" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>10</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C31" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="26">
-        <v>25000</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E31" s="26"/>
       <c r="F31" s="25">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
     </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>11</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="26">
-        <v>145000</v>
-      </c>
+      <c r="E32" s="26"/>
       <c r="F32" s="25">
         <f t="shared" si="0"/>
-        <v>290000</v>
+        <v>0</v>
       </c>
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
@@ -1536,211 +1477,294 @@
         <v>12</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="26">
-        <v>6800</v>
-      </c>
+      <c r="E33" s="26"/>
       <c r="F33" s="25">
         <f t="shared" si="0"/>
-        <v>27200</v>
+        <v>0</v>
       </c>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
     </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>13</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="26">
-        <v>10500</v>
-      </c>
+      <c r="E34" s="26"/>
       <c r="F34" s="25">
         <f t="shared" si="0"/>
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
     </row>
-    <row r="35" spans="1:8" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>14</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C35" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="26">
-        <v>15500</v>
-      </c>
+      <c r="E35" s="26"/>
       <c r="F35" s="25">
         <f t="shared" si="0"/>
-        <v>31000</v>
+        <v>0</v>
       </c>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
     </row>
-    <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>15</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="26">
-        <v>4500</v>
-      </c>
+      <c r="E36" s="26"/>
       <c r="F36" s="25">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G36" s="24"/>
       <c r="H36" s="24"/>
     </row>
-    <row r="37" spans="1:8" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="31" t="s">
+    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>16</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="6">
+        <v>3</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="26"/>
+      <c r="F37" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+    </row>
+    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+    </row>
+    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+    </row>
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+    </row>
+    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+    </row>
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+    </row>
+    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+    </row>
+    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+    </row>
+    <row r="45" spans="1:8" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="19">
-        <f>SUM(F22:F36)</f>
-        <v>5331100</v>
-      </c>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-    </row>
-    <row r="38" spans="1:8" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="19">
+        <f>SUM(F22:F44)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="1:8" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="20">
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="20">
         <v>831100</v>
       </c>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-    </row>
-    <row r="39" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="21">
-        <f>F37-F38</f>
-        <v>4500000</v>
-      </c>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-    </row>
-    <row r="40" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="21">
+        <f>F45-F46</f>
+        <v>-831100</v>
+      </c>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+    </row>
+    <row r="48" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="50" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+    <row r="51" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-    </row>
-    <row r="44" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-    </row>
-    <row r="45" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="54" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="55" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48"/>
-    </row>
-    <row r="49" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="15" t="s">
+    <row r="56" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+    </row>
+    <row r="57" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="18"/>
-    </row>
-    <row r="50" spans="1:4" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50"/>
-    </row>
-    <row r="51" spans="1:4" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51"/>
-    </row>
-    <row r="52" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="18"/>
+    </row>
+    <row r="58" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+    </row>
+    <row r="59" spans="1:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+    </row>
+    <row r="60" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A43:F44"/>
+    <mergeCell ref="A51:F52"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A15:F15"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:E47"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A14:F14"/>
   </mergeCells>
